--- a/src/main/resources/static/excel/download/(주)종근당 2025년 05월 대금정구서.xlsx
+++ b/src/main/resources/static/excel/download/(주)종근당 2025년 05월 대금정구서.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="77">
   <si>
     <t>사업자명</t>
   </si>
@@ -230,6 +230,63 @@
   </si>
   <si>
     <t>11</t>
+  </si>
+  <si>
+    <t>20ABN2108210</t>
+  </si>
+  <si>
+    <t>20ABN2108211</t>
+  </si>
+  <si>
+    <t>20ABN2272901</t>
+  </si>
+  <si>
+    <t>2022-08-30</t>
+  </si>
+  <si>
+    <t>20ABN2272902</t>
+  </si>
+  <si>
+    <t>20ABN2272903</t>
+  </si>
+  <si>
+    <t>20ABN2277348</t>
+  </si>
+  <si>
+    <t>2022-12-08</t>
+  </si>
+  <si>
+    <t>20ABN2277349</t>
+  </si>
+  <si>
+    <t>20ABN2277350</t>
+  </si>
+  <si>
+    <t>20ABN2325560</t>
+  </si>
+  <si>
+    <t>2023-09-19</t>
+  </si>
+  <si>
+    <t>20ABN2325561</t>
+  </si>
+  <si>
+    <t>20ABN2325562</t>
+  </si>
+  <si>
+    <t>20ABN2417372</t>
+  </si>
+  <si>
+    <t>CHP-5710L</t>
+  </si>
+  <si>
+    <t>2024-07-15</t>
+  </si>
+  <si>
+    <t>20ABN2417373</t>
+  </si>
+  <si>
+    <t>2024-08-02</t>
   </si>
 </sst>
 </file>
@@ -2205,21 +2262,24 @@
       <c r="AI28" s="4"/>
       <c r="AJ28" s="11"/>
     </row>
-    <row r="29" ht="40.0" customHeight="true">
-      <c r="B29" t="s" s="67">
-        <v>28</v>
+    <row r="29" spans="1:36" ht="48" customHeight="1">
+      <c r="A29" t="s" s="58">
+        <v>52</v>
+      </c>
+      <c r="B29" t="s" s="64">
+        <v>58</v>
       </c>
       <c r="C29" t="s" s="64">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D29" t="s" s="64">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E29" t="s" s="64">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F29" t="s" s="64">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G29" t="s" s="64">
         <v>52</v>
@@ -2228,7 +2288,7 @@
         <v>52</v>
       </c>
       <c r="I29" t="s" s="64">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="J29" t="n" s="65">
         <v>21800.0</v>
@@ -2248,27 +2308,79 @@
       <c r="O29" t="n" s="65">
         <v>23980.0</v>
       </c>
-      <c r="P29" t="n" s="66">
+      <c r="P29" t="n" s="65">
         <v>95920.0</v>
       </c>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+      <c r="AA29" s="4"/>
+      <c r="AB29" s="4"/>
+      <c r="AC29" s="4"/>
+      <c r="AD29" s="4"/>
+      <c r="AE29" s="4"/>
+      <c r="AF29" s="4"/>
+      <c r="AG29" s="4"/>
+      <c r="AH29" s="4"/>
+      <c r="AI29" s="4"/>
+      <c r="AJ29" s="11"/>
     </row>
     <row r="30" spans="1:36" ht="27" customHeight="1">
-      <c r="A30" s="8"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="39"/>
-      <c r="O30" s="37"/>
-      <c r="P30" s="39"/>
+      <c r="A30" t="s" s="58">
+        <v>52</v>
+      </c>
+      <c r="B30" t="s" s="64">
+        <v>59</v>
+      </c>
+      <c r="C30" t="s" s="64">
+        <v>30</v>
+      </c>
+      <c r="D30" t="s" s="64">
+        <v>54</v>
+      </c>
+      <c r="E30" t="s" s="64">
+        <v>55</v>
+      </c>
+      <c r="F30" t="s" s="64">
+        <v>56</v>
+      </c>
+      <c r="G30" t="s" s="64">
+        <v>52</v>
+      </c>
+      <c r="H30" t="s" s="64">
+        <v>52</v>
+      </c>
+      <c r="I30" t="s" s="64">
+        <v>57</v>
+      </c>
+      <c r="J30" t="n" s="65">
+        <v>21800.0</v>
+      </c>
+      <c r="K30" t="n" s="65">
+        <v>2180.0</v>
+      </c>
+      <c r="L30" t="n" s="65">
+        <v>23980.0</v>
+      </c>
+      <c r="M30" t="n" s="65">
+        <v>21800.0</v>
+      </c>
+      <c r="N30" t="n" s="65">
+        <v>2180.0</v>
+      </c>
+      <c r="O30" t="n" s="65">
+        <v>23980.0</v>
+      </c>
+      <c r="P30" t="n" s="65">
+        <v>95920.0</v>
+      </c>
       <c r="Q30" s="8"/>
       <c r="R30" s="4"/>
       <c r="S30" s="11"/>
@@ -2291,22 +2403,54 @@
       <c r="AJ30" s="11"/>
     </row>
     <row r="31" spans="1:36" ht="18.75" customHeight="1">
-      <c r="A31" s="8"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="39"/>
-      <c r="O31" s="37"/>
-      <c r="P31" s="39"/>
+      <c r="A31" t="s" s="58">
+        <v>52</v>
+      </c>
+      <c r="B31" t="s" s="64">
+        <v>60</v>
+      </c>
+      <c r="C31" t="s" s="64">
+        <v>30</v>
+      </c>
+      <c r="D31" t="s" s="64">
+        <v>54</v>
+      </c>
+      <c r="E31" t="s" s="64">
+        <v>61</v>
+      </c>
+      <c r="F31" t="s" s="64">
+        <v>56</v>
+      </c>
+      <c r="G31" t="s" s="64">
+        <v>52</v>
+      </c>
+      <c r="H31" t="s" s="64">
+        <v>52</v>
+      </c>
+      <c r="I31" t="s" s="64">
+        <v>57</v>
+      </c>
+      <c r="J31" t="n" s="65">
+        <v>21800.0</v>
+      </c>
+      <c r="K31" t="n" s="65">
+        <v>2180.0</v>
+      </c>
+      <c r="L31" t="n" s="65">
+        <v>23980.0</v>
+      </c>
+      <c r="M31" t="n" s="65">
+        <v>21800.0</v>
+      </c>
+      <c r="N31" t="n" s="65">
+        <v>2180.0</v>
+      </c>
+      <c r="O31" t="n" s="65">
+        <v>23980.0</v>
+      </c>
+      <c r="P31" t="n" s="65">
+        <v>95920.0</v>
+      </c>
       <c r="Q31" s="8"/>
       <c r="R31" s="4"/>
       <c r="S31" s="11"/>
@@ -2329,22 +2473,54 @@
       <c r="AJ31" s="11"/>
     </row>
     <row r="32" spans="1:36" ht="18.75" customHeight="1">
-      <c r="A32" s="8"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="39"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="39"/>
+      <c r="A32" t="s" s="58">
+        <v>52</v>
+      </c>
+      <c r="B32" t="s" s="64">
+        <v>62</v>
+      </c>
+      <c r="C32" t="s" s="64">
+        <v>30</v>
+      </c>
+      <c r="D32" t="s" s="64">
+        <v>54</v>
+      </c>
+      <c r="E32" t="s" s="64">
+        <v>61</v>
+      </c>
+      <c r="F32" t="s" s="64">
+        <v>56</v>
+      </c>
+      <c r="G32" t="s" s="64">
+        <v>52</v>
+      </c>
+      <c r="H32" t="s" s="64">
+        <v>52</v>
+      </c>
+      <c r="I32" t="s" s="64">
+        <v>57</v>
+      </c>
+      <c r="J32" t="n" s="65">
+        <v>21800.0</v>
+      </c>
+      <c r="K32" t="n" s="65">
+        <v>2180.0</v>
+      </c>
+      <c r="L32" t="n" s="65">
+        <v>23980.0</v>
+      </c>
+      <c r="M32" t="n" s="65">
+        <v>21800.0</v>
+      </c>
+      <c r="N32" t="n" s="65">
+        <v>2180.0</v>
+      </c>
+      <c r="O32" t="n" s="65">
+        <v>23980.0</v>
+      </c>
+      <c r="P32" t="n" s="65">
+        <v>95920.0</v>
+      </c>
       <c r="Q32" s="8"/>
       <c r="R32" s="4"/>
       <c r="S32" s="11"/>
@@ -2367,22 +2543,54 @@
       <c r="AJ32" s="11"/>
     </row>
     <row r="33" spans="1:36" ht="18.75" customHeight="1">
-      <c r="A33" s="8"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="39"/>
-      <c r="O33" s="37"/>
-      <c r="P33" s="39"/>
+      <c r="A33" t="s" s="58">
+        <v>52</v>
+      </c>
+      <c r="B33" t="s" s="64">
+        <v>63</v>
+      </c>
+      <c r="C33" t="s" s="64">
+        <v>30</v>
+      </c>
+      <c r="D33" t="s" s="64">
+        <v>54</v>
+      </c>
+      <c r="E33" t="s" s="64">
+        <v>61</v>
+      </c>
+      <c r="F33" t="s" s="64">
+        <v>56</v>
+      </c>
+      <c r="G33" t="s" s="64">
+        <v>52</v>
+      </c>
+      <c r="H33" t="s" s="64">
+        <v>52</v>
+      </c>
+      <c r="I33" t="s" s="64">
+        <v>57</v>
+      </c>
+      <c r="J33" t="n" s="65">
+        <v>21800.0</v>
+      </c>
+      <c r="K33" t="n" s="65">
+        <v>2180.0</v>
+      </c>
+      <c r="L33" t="n" s="65">
+        <v>23980.0</v>
+      </c>
+      <c r="M33" t="n" s="65">
+        <v>21800.0</v>
+      </c>
+      <c r="N33" t="n" s="65">
+        <v>2180.0</v>
+      </c>
+      <c r="O33" t="n" s="65">
+        <v>23980.0</v>
+      </c>
+      <c r="P33" t="n" s="65">
+        <v>95920.0</v>
+      </c>
       <c r="Q33" s="8"/>
       <c r="R33" s="4"/>
       <c r="S33" s="11"/>
@@ -2405,22 +2613,54 @@
       <c r="AJ33" s="11"/>
     </row>
     <row r="34" spans="1:36" ht="18.75" customHeight="1">
-      <c r="A34" s="8"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="39"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="39"/>
-      <c r="N34" s="39"/>
-      <c r="O34" s="37"/>
-      <c r="P34" s="39"/>
+      <c r="A34" t="s" s="58">
+        <v>52</v>
+      </c>
+      <c r="B34" t="s" s="64">
+        <v>64</v>
+      </c>
+      <c r="C34" t="s" s="64">
+        <v>30</v>
+      </c>
+      <c r="D34" t="s" s="64">
+        <v>54</v>
+      </c>
+      <c r="E34" t="s" s="64">
+        <v>65</v>
+      </c>
+      <c r="F34" t="s" s="64">
+        <v>56</v>
+      </c>
+      <c r="G34" t="s" s="64">
+        <v>52</v>
+      </c>
+      <c r="H34" t="s" s="64">
+        <v>52</v>
+      </c>
+      <c r="I34" t="s" s="64">
+        <v>57</v>
+      </c>
+      <c r="J34" t="n" s="65">
+        <v>21800.0</v>
+      </c>
+      <c r="K34" t="n" s="65">
+        <v>2180.0</v>
+      </c>
+      <c r="L34" t="n" s="65">
+        <v>23980.0</v>
+      </c>
+      <c r="M34" t="n" s="65">
+        <v>21800.0</v>
+      </c>
+      <c r="N34" t="n" s="65">
+        <v>2180.0</v>
+      </c>
+      <c r="O34" t="n" s="65">
+        <v>23980.0</v>
+      </c>
+      <c r="P34" t="n" s="65">
+        <v>95920.0</v>
+      </c>
       <c r="Q34" s="8"/>
       <c r="R34" s="4"/>
       <c r="S34" s="11"/>
@@ -2443,22 +2683,54 @@
       <c r="AJ34" s="11"/>
     </row>
     <row r="35" spans="1:36" ht="18.75" customHeight="1">
-      <c r="A35" s="8"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="39"/>
-      <c r="K35" s="39"/>
-      <c r="L35" s="39"/>
-      <c r="M35" s="39"/>
-      <c r="N35" s="39"/>
-      <c r="O35" s="37"/>
-      <c r="P35" s="39"/>
+      <c r="A35" t="s" s="58">
+        <v>52</v>
+      </c>
+      <c r="B35" t="s" s="64">
+        <v>66</v>
+      </c>
+      <c r="C35" t="s" s="64">
+        <v>30</v>
+      </c>
+      <c r="D35" t="s" s="64">
+        <v>54</v>
+      </c>
+      <c r="E35" t="s" s="64">
+        <v>65</v>
+      </c>
+      <c r="F35" t="s" s="64">
+        <v>56</v>
+      </c>
+      <c r="G35" t="s" s="64">
+        <v>52</v>
+      </c>
+      <c r="H35" t="s" s="64">
+        <v>52</v>
+      </c>
+      <c r="I35" t="s" s="64">
+        <v>57</v>
+      </c>
+      <c r="J35" t="n" s="65">
+        <v>21800.0</v>
+      </c>
+      <c r="K35" t="n" s="65">
+        <v>2180.0</v>
+      </c>
+      <c r="L35" t="n" s="65">
+        <v>23980.0</v>
+      </c>
+      <c r="M35" t="n" s="65">
+        <v>21800.0</v>
+      </c>
+      <c r="N35" t="n" s="65">
+        <v>2180.0</v>
+      </c>
+      <c r="O35" t="n" s="65">
+        <v>23980.0</v>
+      </c>
+      <c r="P35" t="n" s="65">
+        <v>95920.0</v>
+      </c>
       <c r="Q35" s="8"/>
       <c r="R35" s="4"/>
       <c r="S35" s="11"/>
@@ -2481,22 +2753,54 @@
       <c r="AJ35" s="11"/>
     </row>
     <row r="36" spans="1:36" ht="18.75" customHeight="1">
-      <c r="A36" s="8"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="39"/>
-      <c r="K36" s="39"/>
-      <c r="L36" s="39"/>
-      <c r="M36" s="39"/>
-      <c r="N36" s="39"/>
-      <c r="O36" s="37"/>
-      <c r="P36" s="39"/>
+      <c r="A36" t="s" s="58">
+        <v>52</v>
+      </c>
+      <c r="B36" t="s" s="64">
+        <v>67</v>
+      </c>
+      <c r="C36" t="s" s="64">
+        <v>30</v>
+      </c>
+      <c r="D36" t="s" s="64">
+        <v>54</v>
+      </c>
+      <c r="E36" t="s" s="64">
+        <v>65</v>
+      </c>
+      <c r="F36" t="s" s="64">
+        <v>56</v>
+      </c>
+      <c r="G36" t="s" s="64">
+        <v>52</v>
+      </c>
+      <c r="H36" t="s" s="64">
+        <v>52</v>
+      </c>
+      <c r="I36" t="s" s="64">
+        <v>57</v>
+      </c>
+      <c r="J36" t="n" s="65">
+        <v>21800.0</v>
+      </c>
+      <c r="K36" t="n" s="65">
+        <v>2180.0</v>
+      </c>
+      <c r="L36" t="n" s="65">
+        <v>23980.0</v>
+      </c>
+      <c r="M36" t="n" s="65">
+        <v>21800.0</v>
+      </c>
+      <c r="N36" t="n" s="65">
+        <v>2180.0</v>
+      </c>
+      <c r="O36" t="n" s="65">
+        <v>23980.0</v>
+      </c>
+      <c r="P36" t="n" s="65">
+        <v>95920.0</v>
+      </c>
       <c r="Q36" s="8"/>
       <c r="R36" s="4"/>
       <c r="S36" s="11"/>
@@ -2519,22 +2823,54 @@
       <c r="AJ36" s="11"/>
     </row>
     <row r="37" spans="1:36" ht="18.75" customHeight="1">
-      <c r="A37" s="8"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="39"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="39"/>
-      <c r="M37" s="39"/>
-      <c r="N37" s="39"/>
-      <c r="O37" s="37"/>
-      <c r="P37" s="39"/>
+      <c r="A37" t="s" s="58">
+        <v>52</v>
+      </c>
+      <c r="B37" t="s" s="64">
+        <v>68</v>
+      </c>
+      <c r="C37" t="s" s="64">
+        <v>30</v>
+      </c>
+      <c r="D37" t="s" s="64">
+        <v>54</v>
+      </c>
+      <c r="E37" t="s" s="64">
+        <v>69</v>
+      </c>
+      <c r="F37" t="s" s="64">
+        <v>56</v>
+      </c>
+      <c r="G37" t="s" s="64">
+        <v>52</v>
+      </c>
+      <c r="H37" t="s" s="64">
+        <v>52</v>
+      </c>
+      <c r="I37" t="s" s="64">
+        <v>57</v>
+      </c>
+      <c r="J37" t="n" s="65">
+        <v>21800.0</v>
+      </c>
+      <c r="K37" t="n" s="65">
+        <v>2180.0</v>
+      </c>
+      <c r="L37" t="n" s="65">
+        <v>23980.0</v>
+      </c>
+      <c r="M37" t="n" s="65">
+        <v>21800.0</v>
+      </c>
+      <c r="N37" t="n" s="65">
+        <v>2180.0</v>
+      </c>
+      <c r="O37" t="n" s="65">
+        <v>23980.0</v>
+      </c>
+      <c r="P37" t="n" s="65">
+        <v>95920.0</v>
+      </c>
       <c r="Q37" s="8"/>
       <c r="R37" s="4"/>
       <c r="S37" s="11"/>
@@ -2557,22 +2893,54 @@
       <c r="AJ37" s="11"/>
     </row>
     <row r="38" spans="1:36" ht="18.75" customHeight="1">
-      <c r="A38" s="8"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="39"/>
-      <c r="K38" s="39"/>
-      <c r="L38" s="39"/>
-      <c r="M38" s="39"/>
-      <c r="N38" s="39"/>
-      <c r="O38" s="37"/>
-      <c r="P38" s="39"/>
+      <c r="A38" t="s" s="58">
+        <v>52</v>
+      </c>
+      <c r="B38" t="s" s="64">
+        <v>70</v>
+      </c>
+      <c r="C38" t="s" s="64">
+        <v>30</v>
+      </c>
+      <c r="D38" t="s" s="64">
+        <v>54</v>
+      </c>
+      <c r="E38" t="s" s="64">
+        <v>69</v>
+      </c>
+      <c r="F38" t="s" s="64">
+        <v>56</v>
+      </c>
+      <c r="G38" t="s" s="64">
+        <v>52</v>
+      </c>
+      <c r="H38" t="s" s="64">
+        <v>52</v>
+      </c>
+      <c r="I38" t="s" s="64">
+        <v>57</v>
+      </c>
+      <c r="J38" t="n" s="65">
+        <v>21800.0</v>
+      </c>
+      <c r="K38" t="n" s="65">
+        <v>2180.0</v>
+      </c>
+      <c r="L38" t="n" s="65">
+        <v>23980.0</v>
+      </c>
+      <c r="M38" t="n" s="65">
+        <v>21800.0</v>
+      </c>
+      <c r="N38" t="n" s="65">
+        <v>2180.0</v>
+      </c>
+      <c r="O38" t="n" s="65">
+        <v>23980.0</v>
+      </c>
+      <c r="P38" t="n" s="65">
+        <v>95920.0</v>
+      </c>
       <c r="Q38" s="8"/>
       <c r="R38" s="4"/>
       <c r="S38" s="11"/>
@@ -2595,22 +2963,54 @@
       <c r="AJ38" s="11"/>
     </row>
     <row r="39" spans="1:36" ht="18.75" customHeight="1">
-      <c r="A39" s="8"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="39"/>
-      <c r="K39" s="39"/>
-      <c r="L39" s="39"/>
-      <c r="M39" s="39"/>
-      <c r="N39" s="39"/>
-      <c r="O39" s="37"/>
-      <c r="P39" s="39"/>
+      <c r="A39" t="s" s="58">
+        <v>52</v>
+      </c>
+      <c r="B39" t="s" s="64">
+        <v>71</v>
+      </c>
+      <c r="C39" t="s" s="64">
+        <v>30</v>
+      </c>
+      <c r="D39" t="s" s="64">
+        <v>54</v>
+      </c>
+      <c r="E39" t="s" s="64">
+        <v>69</v>
+      </c>
+      <c r="F39" t="s" s="64">
+        <v>56</v>
+      </c>
+      <c r="G39" t="s" s="64">
+        <v>52</v>
+      </c>
+      <c r="H39" t="s" s="64">
+        <v>52</v>
+      </c>
+      <c r="I39" t="s" s="64">
+        <v>57</v>
+      </c>
+      <c r="J39" t="n" s="65">
+        <v>21800.0</v>
+      </c>
+      <c r="K39" t="n" s="65">
+        <v>2180.0</v>
+      </c>
+      <c r="L39" t="n" s="65">
+        <v>23980.0</v>
+      </c>
+      <c r="M39" t="n" s="65">
+        <v>21800.0</v>
+      </c>
+      <c r="N39" t="n" s="65">
+        <v>2180.0</v>
+      </c>
+      <c r="O39" t="n" s="65">
+        <v>23980.0</v>
+      </c>
+      <c r="P39" t="n" s="65">
+        <v>95920.0</v>
+      </c>
       <c r="Q39" s="8"/>
       <c r="R39" s="4"/>
       <c r="S39" s="11"/>
@@ -2633,22 +3033,54 @@
       <c r="AJ39" s="11"/>
     </row>
     <row r="40" spans="1:36" ht="18.75" customHeight="1">
-      <c r="A40" s="8"/>
-      <c r="B40" s="36"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="39"/>
-      <c r="K40" s="39"/>
-      <c r="L40" s="39"/>
-      <c r="M40" s="39"/>
-      <c r="N40" s="39"/>
-      <c r="O40" s="37"/>
-      <c r="P40" s="39"/>
+      <c r="A40" t="s" s="58">
+        <v>52</v>
+      </c>
+      <c r="B40" t="s" s="64">
+        <v>72</v>
+      </c>
+      <c r="C40" t="s" s="64">
+        <v>30</v>
+      </c>
+      <c r="D40" t="s" s="64">
+        <v>73</v>
+      </c>
+      <c r="E40" t="s" s="64">
+        <v>74</v>
+      </c>
+      <c r="F40" t="s" s="64">
+        <v>56</v>
+      </c>
+      <c r="G40" t="s" s="64">
+        <v>52</v>
+      </c>
+      <c r="H40" t="s" s="64">
+        <v>52</v>
+      </c>
+      <c r="I40" t="s" s="64">
+        <v>57</v>
+      </c>
+      <c r="J40" t="n" s="65">
+        <v>21800.0</v>
+      </c>
+      <c r="K40" t="n" s="65">
+        <v>2180.0</v>
+      </c>
+      <c r="L40" t="n" s="65">
+        <v>23980.0</v>
+      </c>
+      <c r="M40" t="n" s="65">
+        <v>21800.0</v>
+      </c>
+      <c r="N40" t="n" s="65">
+        <v>2180.0</v>
+      </c>
+      <c r="O40" t="n" s="65">
+        <v>23980.0</v>
+      </c>
+      <c r="P40" t="n" s="65">
+        <v>95920.0</v>
+      </c>
       <c r="Q40" s="8"/>
       <c r="R40" s="4"/>
       <c r="S40" s="11"/>
@@ -2671,22 +3103,54 @@
       <c r="AJ40" s="11"/>
     </row>
     <row r="41" spans="1:36" ht="18.75" customHeight="1">
-      <c r="A41" s="8"/>
-      <c r="B41" s="36"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="37"/>
-      <c r="J41" s="39"/>
-      <c r="K41" s="39"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="39"/>
-      <c r="N41" s="39"/>
-      <c r="O41" s="37"/>
-      <c r="P41" s="39"/>
+      <c r="A41" t="s" s="58">
+        <v>52</v>
+      </c>
+      <c r="B41" t="s" s="64">
+        <v>75</v>
+      </c>
+      <c r="C41" t="s" s="64">
+        <v>30</v>
+      </c>
+      <c r="D41" t="s" s="64">
+        <v>73</v>
+      </c>
+      <c r="E41" t="s" s="64">
+        <v>76</v>
+      </c>
+      <c r="F41" t="s" s="64">
+        <v>56</v>
+      </c>
+      <c r="G41" t="s" s="64">
+        <v>52</v>
+      </c>
+      <c r="H41" t="s" s="64">
+        <v>52</v>
+      </c>
+      <c r="I41" t="s" s="64">
+        <v>57</v>
+      </c>
+      <c r="J41" t="n" s="65">
+        <v>21800.0</v>
+      </c>
+      <c r="K41" t="n" s="65">
+        <v>2180.0</v>
+      </c>
+      <c r="L41" t="n" s="65">
+        <v>23980.0</v>
+      </c>
+      <c r="M41" t="n" s="65">
+        <v>21800.0</v>
+      </c>
+      <c r="N41" t="n" s="65">
+        <v>2180.0</v>
+      </c>
+      <c r="O41" t="n" s="65">
+        <v>23980.0</v>
+      </c>
+      <c r="P41" t="n" s="65">
+        <v>95920.0</v>
+      </c>
       <c r="Q41" s="8"/>
       <c r="R41" s="4"/>
       <c r="S41" s="11"/>
@@ -2708,43 +3172,52 @@
       <c r="AI41" s="4"/>
       <c r="AJ41" s="11"/>
     </row>
-    <row r="42" spans="1:36" ht="18.75" customHeight="1">
-      <c r="A42" s="8"/>
-      <c r="B42" s="36"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="37"/>
-      <c r="I42" s="37"/>
-      <c r="J42" s="39"/>
-      <c r="K42" s="39"/>
-      <c r="L42" s="39"/>
-      <c r="M42" s="39"/>
-      <c r="N42" s="39"/>
-      <c r="O42" s="37"/>
-      <c r="P42" s="39"/>
-      <c r="Q42" s="8"/>
-      <c r="R42" s="4"/>
-      <c r="S42" s="11"/>
-      <c r="T42" s="11"/>
-      <c r="U42" s="11"/>
-      <c r="V42" s="11"/>
-      <c r="W42" s="11"/>
-      <c r="X42" s="4"/>
-      <c r="Y42" s="4"/>
-      <c r="Z42" s="4"/>
-      <c r="AA42" s="4"/>
-      <c r="AB42" s="4"/>
-      <c r="AC42" s="4"/>
-      <c r="AD42" s="4"/>
-      <c r="AE42" s="4"/>
-      <c r="AF42" s="4"/>
-      <c r="AG42" s="4"/>
-      <c r="AH42" s="4"/>
-      <c r="AI42" s="4"/>
-      <c r="AJ42" s="11"/>
+    <row r="42" ht="40.0" customHeight="true">
+      <c r="B42" t="s" s="67">
+        <v>28</v>
+      </c>
+      <c r="C42" t="s" s="64">
+        <v>52</v>
+      </c>
+      <c r="D42" t="s" s="64">
+        <v>52</v>
+      </c>
+      <c r="E42" t="s" s="64">
+        <v>52</v>
+      </c>
+      <c r="F42" t="s" s="64">
+        <v>52</v>
+      </c>
+      <c r="G42" t="s" s="64">
+        <v>52</v>
+      </c>
+      <c r="H42" t="s" s="64">
+        <v>52</v>
+      </c>
+      <c r="I42" t="s" s="64">
+        <v>52</v>
+      </c>
+      <c r="J42" t="n" s="65">
+        <v>305200.0</v>
+      </c>
+      <c r="K42" t="n" s="65">
+        <v>30520.0</v>
+      </c>
+      <c r="L42" t="n" s="65">
+        <v>335720.0</v>
+      </c>
+      <c r="M42" t="n" s="65">
+        <v>305200.0</v>
+      </c>
+      <c r="N42" t="n" s="65">
+        <v>30520.0</v>
+      </c>
+      <c r="O42" t="n" s="65">
+        <v>335720.0</v>
+      </c>
+      <c r="P42" t="n" s="66">
+        <v>1342880.0</v>
+      </c>
     </row>
     <row r="43" spans="1:36" ht="18.75" customHeight="1">
       <c r="A43" s="8"/>
